--- a/新人選手その後_U18編.xlsx
+++ b/新人選手その後_U18編.xlsx
@@ -5,18 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\データまとめ\ブログ用\新加入選手のその後\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\データまとめ\ブログ用\新加入選手のその後\NewPlayer_LaterCheck\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89D4B13-D020-428C-B60E-AD7AC438477E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535B2690-52FA-487E-BBB1-01B6C8577BA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="2016シーズン入団" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
